--- a/moduler/toolmonitor_data/results/Tidskalkyle.xlsx
+++ b/moduler/toolmonitor_data/results/Tidskalkyle.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
@@ -729,7 +729,17 @@
         <v>2511.518740999996</v>
       </c>
     </row>
-    <row r="38"/>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>165349_B_Framside</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>4419.727274000001</v>
+      </c>
+    </row>
+    <row r="39"/>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -965,7 +975,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0:34:37.950162000001</t>
+          <t>1:48:17.677436000001762</t>
         </is>
       </c>
     </row>

--- a/moduler/toolmonitor_data/results/Tidskalkyle.xlsx
+++ b/moduler/toolmonitor_data/results/Tidskalkyle.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
@@ -739,7 +739,27 @@
         <v>4419.727274000001</v>
       </c>
     </row>
-    <row r="39"/>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>169375_B_Framside</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>4741.431837000002</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>168709_C</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>1336.577484</v>
+      </c>
+    </row>
+    <row r="41"/>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -751,7 +771,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -987,7 +1007,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0:37:55.100234</t>
+          <t>1:56:56.53207100000145</t>
         </is>
       </c>
     </row>
@@ -1087,7 +1107,19 @@
         </is>
       </c>
     </row>
-    <row r="28"/>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>168709</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>0:22:16.577483999999686</t>
+        </is>
+      </c>
+    </row>
+    <row r="29"/>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/moduler/toolmonitor_data/results/Tidskalkyle.xlsx
+++ b/moduler/toolmonitor_data/results/Tidskalkyle.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
@@ -759,7 +759,17 @@
         <v>1336.577484</v>
       </c>
     </row>
-    <row r="41"/>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>118276_E_Framside</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>2920.057859000003</v>
+      </c>
+    </row>
+    <row r="42"/>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -771,7 +781,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1115,11 +1125,23 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0:22:16.577483999999686</t>
-        </is>
-      </c>
-    </row>
-    <row r="29"/>
+          <t>0:22:16.577483999999913</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>118276</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>0:48:40.05785900000319</t>
+        </is>
+      </c>
+    </row>
+    <row r="30"/>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/moduler/toolmonitor_data/results/Tidskalkyle.xlsx
+++ b/moduler/toolmonitor_data/results/Tidskalkyle.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
@@ -436,7 +436,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1688.639108</v>
+        <v>1701.992885</v>
       </c>
     </row>
     <row r="9">
@@ -769,7 +769,67 @@
         <v>2920.057859000003</v>
       </c>
     </row>
-    <row r="42"/>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>opplæring_169262_A_bakside</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>1187.576373</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>opplæring_169262_A_framside</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>2341.201902</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>171456_A_Bakside</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>1199.919858999999</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>171456_A_Framside</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>3870.328800999999</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>170489_D</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>1921.991390000001</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>164563_B</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>856.1621070000001</v>
+      </c>
+    </row>
+    <row r="48"/>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -781,7 +841,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -873,7 +933,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>7:15:45.6295280000013</t>
+          <t>7:15:58.983305000001565</t>
         </is>
       </c>
     </row>
@@ -1141,7 +1201,55 @@
         </is>
       </c>
     </row>
-    <row r="30"/>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>opplær</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>0:58:48.77827499999967</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>171456</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>1:24:30.24865999999838</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>170489</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>0:32:1.9913900000010472</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>164563</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>0:14:16.162107000000105</t>
+        </is>
+      </c>
+    </row>
+    <row r="34"/>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/moduler/toolmonitor_data/results/Tidskalkyle.xlsx
+++ b/moduler/toolmonitor_data/results/Tidskalkyle.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
@@ -829,7 +829,17 @@
         <v>856.1621070000001</v>
       </c>
     </row>
-    <row r="48"/>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>172069_A</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>787.1399090000001</v>
+      </c>
+    </row>
+    <row r="49"/>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -841,7 +851,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1249,7 +1259,19 @@
         </is>
       </c>
     </row>
-    <row r="34"/>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>172069</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>0:13:7.139909000000102</t>
+        </is>
+      </c>
+    </row>
+    <row r="35"/>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/moduler/toolmonitor_data/results/Tidskalkyle.xlsx
+++ b/moduler/toolmonitor_data/results/Tidskalkyle.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
@@ -839,7 +839,17 @@
         <v>787.1399090000001</v>
       </c>
     </row>
-    <row r="49"/>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>150140_A_FRAM</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>19349.660933</v>
+      </c>
+    </row>
+    <row r="50"/>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -851,7 +861,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1271,7 +1281,19 @@
         </is>
       </c>
     </row>
-    <row r="35"/>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>150140</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>5:22:29.660932999999204</t>
+        </is>
+      </c>
+    </row>
+    <row r="36"/>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/moduler/toolmonitor_data/results/Tidskalkyle.xlsx
+++ b/moduler/toolmonitor_data/results/Tidskalkyle.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
@@ -849,7 +849,17 @@
         <v>19349.660933</v>
       </c>
     </row>
-    <row r="50"/>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>164812_G_Bakside</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>1595.590838999999</v>
+      </c>
+    </row>
+    <row r="51"/>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -861,7 +871,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1293,7 +1303,19 @@
         </is>
       </c>
     </row>
-    <row r="36"/>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>164812</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>0:26:35.59083899999905</t>
+        </is>
+      </c>
+    </row>
+    <row r="37"/>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/moduler/toolmonitor_data/results/Tidskalkyle.xlsx
+++ b/moduler/toolmonitor_data/results/Tidskalkyle.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
@@ -859,7 +859,17 @@
         <v>1595.590838999999</v>
       </c>
     </row>
-    <row r="51"/>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>164812_G_Framside_2</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>4248.921785999999</v>
+      </c>
+    </row>
+    <row r="52"/>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -1311,7 +1321,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0:26:35.59083899999905</t>
+          <t>1:37:24.51262499999757</t>
         </is>
       </c>
     </row>

--- a/moduler/toolmonitor_data/results/Tidskalkyle.xlsx
+++ b/moduler/toolmonitor_data/results/Tidskalkyle.xlsx
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>4248.921785999999</v>
+        <v>4129.281778</v>
       </c>
     </row>
     <row r="52"/>
@@ -1321,7 +1321,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1:37:24.51262499999757</t>
+          <t>1:35:24.87261699999908</t>
         </is>
       </c>
     </row>

--- a/moduler/toolmonitor_data/results/Tidskalkyle.xlsx
+++ b/moduler/toolmonitor_data/results/Tidskalkyle.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1921.991390000001</v>
+        <v>1922.020856000001</v>
       </c>
     </row>
     <row r="47">
@@ -869,7 +869,127 @@
         <v>4129.281778</v>
       </c>
     </row>
-    <row r="52"/>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>168127_C</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>1317.182999</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>169238_A</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>775.3842090000001</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>172707_A_Bakside</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>805.955273</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>172707_A_Framside</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>3749.244028000001</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>102819_D_Bakside</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>1212.575555000001</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>172613_B_Bakside</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>2404.435144</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>172613_B_Framside</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>4384.874422</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>halvtårsoppgave_172529_B_bakside</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>3010.275456</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>172175_C_Bakside</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>4302.057306</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>172175_C_Framside</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>3731.348640999999</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>halvtårsoppgave_172529_B_framside</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>3437.733504999999</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>172995_A_Bakside</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>1985.089085</v>
+      </c>
+    </row>
+    <row r="64"/>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -881,7 +1001,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1273,7 +1393,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0:32:1.9913900000010472</t>
+          <t>0:32:2.020856000001004</t>
         </is>
       </c>
     </row>
@@ -1325,7 +1445,103 @@
         </is>
       </c>
     </row>
-    <row r="37"/>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>168127</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>0:21:57.18299900000011</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>169238</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>0:12:55.384209000000055</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>172707</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>1:15:55.19930100000056</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>102819</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>0:20:12.575555000001032</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>172613</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>1:53:9.309565999999904</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>halvtå</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>1:47:28.008960999998635</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>172175</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2:13:53.40594699999929</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>172995</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>0:33:5.089085000000296</t>
+        </is>
+      </c>
+    </row>
+    <row r="45"/>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/moduler/toolmonitor_data/results/Tidskalkyle.xlsx
+++ b/moduler/toolmonitor_data/results/Tidskalkyle.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B64"/>
+  <dimension ref="A1:B67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2205.069559</v>
+        <v>2144.635771000001</v>
       </c>
     </row>
     <row r="25">
@@ -926,7 +926,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>2404.435144</v>
+        <v>2404.701847000001</v>
       </c>
     </row>
     <row r="58">
@@ -989,7 +989,37 @@
         <v>1985.089085</v>
       </c>
     </row>
-    <row r="64"/>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>172995_A_Framside</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>718.377535</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>148544_A</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>2384.307169</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>169352_B_Framside_2</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>5113.065786999999</v>
+      </c>
+    </row>
+    <row r="67"/>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -1001,7 +1031,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1213,7 +1243,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0:36:45.06955900000003</t>
+          <t>2:0:57.70155799999975</t>
         </is>
       </c>
     </row>
@@ -1501,7 +1531,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1:53:9.309565999999904</t>
+          <t>1:53:9.576269000001048</t>
         </is>
       </c>
     </row>
@@ -1537,11 +1567,23 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0:33:5.089085000000296</t>
-        </is>
-      </c>
-    </row>
-    <row r="45"/>
+          <t>0:45:3.466620000000148</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>148544</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>0:39:44.30716900000016</t>
+        </is>
+      </c>
+    </row>
+    <row r="46"/>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/moduler/toolmonitor_data/results/Tidskalkyle.xlsx
+++ b/moduler/toolmonitor_data/results/Tidskalkyle.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B67"/>
+  <dimension ref="A1:B68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
@@ -1019,7 +1019,17 @@
         <v>5113.065786999999</v>
       </c>
     </row>
-    <row r="67"/>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>125870_B</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>660.158401</v>
+      </c>
+    </row>
+    <row r="68"/>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -1031,7 +1041,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1583,7 +1593,19 @@
         </is>
       </c>
     </row>
-    <row r="46"/>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>125870</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>0:11:0.15840100000002622</t>
+        </is>
+      </c>
+    </row>
+    <row r="47"/>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/moduler/toolmonitor_data/results/Tidskalkyle.xlsx
+++ b/moduler/toolmonitor_data/results/Tidskalkyle.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B68"/>
+  <dimension ref="A1:B70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
@@ -1029,7 +1029,27 @@
         <v>660.158401</v>
       </c>
     </row>
-    <row r="68"/>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>169407_A</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>639.5633160000001</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>159756_B</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>474.849379</v>
+      </c>
+    </row>
+    <row r="70"/>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -1041,7 +1061,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1605,7 +1625,31 @@
         </is>
       </c>
     </row>
-    <row r="47"/>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>169407</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>0:10:39.5633160000001</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>159756</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>0:7:54.849379</t>
+        </is>
+      </c>
+    </row>
+    <row r="49"/>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/moduler/toolmonitor_data/results/Tidskalkyle.xlsx
+++ b/moduler/toolmonitor_data/results/Tidskalkyle.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B70"/>
+  <dimension ref="A1:B71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
@@ -1049,7 +1049,17 @@
         <v>474.849379</v>
       </c>
     </row>
-    <row r="70"/>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>110256_D</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>1404.184306</v>
+      </c>
+    </row>
+    <row r="71"/>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -1061,7 +1071,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1649,7 +1659,19 @@
         </is>
       </c>
     </row>
-    <row r="49"/>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>110256</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>0:23:24.184306000000106</t>
+        </is>
+      </c>
+    </row>
+    <row r="50"/>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/moduler/toolmonitor_data/results/Tidskalkyle.xlsx
+++ b/moduler/toolmonitor_data/results/Tidskalkyle.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B71"/>
+  <dimension ref="A1:B72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
@@ -1059,7 +1059,17 @@
         <v>1404.184306</v>
       </c>
     </row>
-    <row r="71"/>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>150571_A</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>990.3911089999999</v>
+      </c>
+    </row>
+    <row r="72"/>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -1071,7 +1081,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1671,7 +1681,19 @@
         </is>
       </c>
     </row>
-    <row r="50"/>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>150571</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>0:16:30.391108999999915</t>
+        </is>
+      </c>
+    </row>
+    <row r="51"/>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/moduler/toolmonitor_data/results/Tidskalkyle.xlsx
+++ b/moduler/toolmonitor_data/results/Tidskalkyle.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B72"/>
+  <dimension ref="A1:B74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
@@ -1069,7 +1069,27 @@
         <v>990.3911089999999</v>
       </c>
     </row>
-    <row r="72"/>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>172610_C_Bakside</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>2336.852622999999</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>118269_E_Bakside</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>1277.425066</v>
+      </c>
+    </row>
+    <row r="74"/>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -1081,7 +1101,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1693,7 +1713,31 @@
         </is>
       </c>
     </row>
-    <row r="51"/>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>172610</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>0:38:56.85262299999886</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>118269</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>0:21:17.425066000000015</t>
+        </is>
+      </c>
+    </row>
+    <row r="53"/>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/moduler/toolmonitor_data/results/Tidskalkyle.xlsx
+++ b/moduler/toolmonitor_data/results/Tidskalkyle.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B74"/>
+  <dimension ref="A1:B75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
@@ -1089,7 +1089,17 @@
         <v>1277.425066</v>
       </c>
     </row>
-    <row r="74"/>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>118269_E_Framside</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>2253.809355</v>
+      </c>
+    </row>
+    <row r="75"/>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -1733,7 +1743,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0:21:17.425066000000015</t>
+          <t>0:58:51.23442100000011</t>
         </is>
       </c>
     </row>

--- a/moduler/toolmonitor_data/results/Tidskalkyle.xlsx
+++ b/moduler/toolmonitor_data/results/Tidskalkyle.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B75"/>
+  <dimension ref="A1:B77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>365.282002</v>
+        <v>512.216505</v>
       </c>
     </row>
     <row r="31">
@@ -1099,7 +1099,27 @@
         <v>2253.809355</v>
       </c>
     </row>
-    <row r="75"/>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>171665_A</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>570.4375990000001</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>164103_A</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>414.713087</v>
+      </c>
+    </row>
+    <row r="77"/>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -1111,7 +1131,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1383,7 +1403,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0:6:5.282001999999977</t>
+          <t>0:8:32.216504999999984</t>
         </is>
       </c>
     </row>
@@ -1747,7 +1767,31 @@
         </is>
       </c>
     </row>
-    <row r="53"/>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>171665</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>0:9:30.43759900000009</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>164103</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>0:6:54.71308699999997</t>
+        </is>
+      </c>
+    </row>
+    <row r="55"/>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/moduler/toolmonitor_data/results/Tidskalkyle.xlsx
+++ b/moduler/toolmonitor_data/results/Tidskalkyle.xlsx
@@ -676,7 +676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>3153.848868000001</v>
+        <v>3145.648805000001</v>
       </c>
     </row>
     <row r="33">
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>5461.327518999992</v>
+        <v>6706.601554999991</v>
       </c>
     </row>
     <row r="34">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2:23:35.176386999992246</t>
+          <t>2:44:12.250359999992725</t>
         </is>
       </c>
     </row>

--- a/moduler/toolmonitor_data/results/Tidskalkyle.xlsx
+++ b/moduler/toolmonitor_data/results/Tidskalkyle.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B77"/>
+  <dimension ref="A1:B83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
@@ -1119,7 +1119,67 @@
         <v>414.713087</v>
       </c>
     </row>
-    <row r="77"/>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>171157_A</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>485.9829780000001</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>121100_C</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>411.0630880000001</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>118295_E_Bakside</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>2041.489095</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>118295_E_Framside</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>1171.587979</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>145978_B_BAK</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>934.154768</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>145978_B_FRAM</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>1776.167117999999</v>
+      </c>
+    </row>
+    <row r="83"/>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -1131,7 +1191,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:B59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1791,7 +1851,55 @@
         </is>
       </c>
     </row>
-    <row r="55"/>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>171157</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>0:8:5.9829780000001165</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>121100</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>0:6:51.06308800000011</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>118295</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>0:53:33.07707399999981</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>145978</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>0:45:10.321885999998813</t>
+        </is>
+      </c>
+    </row>
+    <row r="59"/>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/moduler/toolmonitor_data/results/Tidskalkyle.xlsx
+++ b/moduler/toolmonitor_data/results/Tidskalkyle.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B83"/>
+  <dimension ref="A1:B84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
@@ -1179,7 +1179,17 @@
         <v>1776.167117999999</v>
       </c>
     </row>
-    <row r="83"/>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>173128_B</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>664.9718610000001</v>
+      </c>
+    </row>
+    <row r="84"/>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -1191,7 +1201,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B59"/>
+  <dimension ref="A1:B60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1899,7 +1909,19 @@
         </is>
       </c>
     </row>
-    <row r="59"/>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>173128</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>0:11:4.971861000000104</t>
+        </is>
+      </c>
+    </row>
+    <row r="60"/>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/moduler/toolmonitor_data/results/Tidskalkyle.xlsx
+++ b/moduler/toolmonitor_data/results/Tidskalkyle.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B84"/>
+  <dimension ref="A1:B85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
@@ -1189,7 +1189,17 @@
         <v>664.9718610000001</v>
       </c>
     </row>
-    <row r="84"/>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>119973_D</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>799.5914720000001</v>
+      </c>
+    </row>
+    <row r="85"/>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -1201,7 +1211,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1921,7 +1931,19 @@
         </is>
       </c>
     </row>
-    <row r="60"/>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>119973</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>0:13:19.591472000000067</t>
+        </is>
+      </c>
+    </row>
+    <row r="61"/>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/moduler/toolmonitor_data/results/Tidskalkyle.xlsx
+++ b/moduler/toolmonitor_data/results/Tidskalkyle.xlsx
@@ -466,7 +466,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1950.969811000001</v>
+        <v>1816.745134000001</v>
       </c>
     </row>
     <row r="12">
@@ -1315,7 +1315,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1:24:39.86014299999897</t>
+          <t>1:22:25.635465999998814</t>
         </is>
       </c>
     </row>

--- a/moduler/toolmonitor_data/results/Tidskalkyle.xlsx
+++ b/moduler/toolmonitor_data/results/Tidskalkyle.xlsx
@@ -476,7 +476,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3128.890331999998</v>
+        <v>3689.817744999997</v>
       </c>
     </row>
     <row r="13">
@@ -1315,7 +1315,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1:22:25.635465999998814</t>
+          <t>1:31:46.56287899999825</t>
         </is>
       </c>
     </row>

--- a/moduler/toolmonitor_data/results/Tidskalkyle.xlsx
+++ b/moduler/toolmonitor_data/results/Tidskalkyle.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B85"/>
+  <dimension ref="A1:B86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
@@ -1199,7 +1199,17 @@
         <v>799.5914720000001</v>
       </c>
     </row>
-    <row r="85"/>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>162097_A</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>661.231779</v>
+      </c>
+    </row>
+    <row r="86"/>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -1211,7 +1221,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B61"/>
+  <dimension ref="A1:B62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1943,7 +1953,19 @@
         </is>
       </c>
     </row>
-    <row r="61"/>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>162097</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>0:11:1.2317789999999604</t>
+        </is>
+      </c>
+    </row>
+    <row r="62"/>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/moduler/toolmonitor_data/results/Tidskalkyle.xlsx
+++ b/moduler/toolmonitor_data/results/Tidskalkyle.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B86"/>
+  <dimension ref="A1:B87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
@@ -1209,7 +1209,17 @@
         <v>661.231779</v>
       </c>
     </row>
-    <row r="86"/>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>173237_A_Framside</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>14127.86818300001</v>
+      </c>
+    </row>
+    <row r="87"/>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -1221,7 +1231,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B62"/>
+  <dimension ref="A1:B63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1965,7 +1975,19 @@
         </is>
       </c>
     </row>
-    <row r="62"/>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>173237</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>3:55:27.868183000005956</t>
+        </is>
+      </c>
+    </row>
+    <row r="63"/>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
